--- a/MarsCoreFramework/TestData/TestData.xlsx
+++ b/MarsCoreFramework/TestData/TestData.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="SkillShareAdd" sheetId="3" r:id="rId3"/>
-    <sheet name="Profile" sheetId="4" r:id="rId4"/>
-    <sheet name="EditShareSkill" sheetId="5" r:id="rId5"/>
+    <sheet name="EditShareSkill" sheetId="5" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
+    <sheet name="SignUp" sheetId="2" r:id="rId3"/>
+    <sheet name="SkillShareAdd" sheetId="3" r:id="rId4"/>
+    <sheet name="Profile" sheetId="4" r:id="rId5"/>
+    <sheet name="AddLanguage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Url</t>
   </si>
@@ -183,6 +184,21 @@
   </si>
   <si>
     <t>Flyers &amp; Brochures</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Fluent</t>
+  </si>
+  <si>
+    <t>LanguageLevel</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -544,332 +560,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43534</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43554</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="3">
-        <v>100</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1023,4 +713,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43534</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43554</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3">
+        <v>100</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MarsCoreFramework/TestData/TestData.xlsx
+++ b/MarsCoreFramework/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="694" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EditShareSkill" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="SkillShareAdd" sheetId="3" r:id="rId4"/>
     <sheet name="Profile" sheetId="4" r:id="rId5"/>
     <sheet name="AddLanguage" sheetId="6" r:id="rId6"/>
+    <sheet name="AddSkill" sheetId="7" r:id="rId7"/>
+    <sheet name="AddEducation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Url</t>
   </si>
@@ -199,6 +201,42 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>InstituteName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Unitec Institute of Technology</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>B.A</t>
+  </si>
+  <si>
+    <t>Graduate Diploma of Computing</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1076,4 +1114,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MarsCoreFramework/TestData/TestData.xlsx
+++ b/MarsCoreFramework/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="694" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="694" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="EditShareSkill" sheetId="5" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="AddLanguage" sheetId="6" r:id="rId6"/>
     <sheet name="AddSkill" sheetId="7" r:id="rId7"/>
     <sheet name="AddEducation" sheetId="8" r:id="rId8"/>
+    <sheet name="AddCertification" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Url</t>
   </si>
@@ -237,6 +238,21 @@
   </si>
   <si>
     <t>Graduate Diploma of Computing</t>
+  </si>
+  <si>
+    <t>The profile is to demo the right thing for a person</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduate Diploma </t>
+  </si>
+  <si>
+    <t>Adobe</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1046,7 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -1039,7 +1055,7 @@
     <col min="12" max="12" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1071,6 +1090,9 @@
       </c>
       <c r="E2" t="s">
         <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1209,4 +1231,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>